--- a/wordconnect/word_connect.xlsx
+++ b/wordconnect/word_connect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29041969-092B-49F7-9176-690D2CC95097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFBDA90-EFC9-4ACC-B642-9B3C31C5A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14730" yWindow="11460" windowWidth="27000" windowHeight="14790" xr2:uid="{05DCB737-B66C-4194-8B16-41369BA1CAC8}"/>
+    <workbookView xWindow="1620" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{05DCB737-B66C-4194-8B16-41369BA1CAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
